--- a/mySystem/mySystem/xls/LDPE/QB-PA-PP-03-R01A 产品外观和尺寸检验记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/QB-PA-PP-03-R01A 产品外观和尺寸检验记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\CSBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,21 +500,33 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>外观检查</t>
+      <t>尺寸检测</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>尺寸检测</t>
+      <t>抽检量</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游离异物</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -527,7 +539,72 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>宽</t>
+      <t>内含黑点晶点</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热封线不良</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不良合计</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>判定</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注：判定栏中合格划√，不合格划</t>
     </r>
     <r>
       <rPr>
@@ -546,472 +623,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>长</t>
+      <t>。</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽样时间</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽检量</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>游离异物</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内含黑点晶点</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热封线不良</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不良合计</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>判定</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>抽检时间</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小计</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备注：判定栏中合格划√，不合格划</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>QB/PA-PP-03-R01A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品代码</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>规格：</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品批号：</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复核人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1443,12 +1064,60 @@
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>抽样日期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽样时间</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观检查</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产指令编号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品代码：</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品批号：</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽检量</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽X长(MM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,12 +1272,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1618,7 +1281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="58">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2208,28 +1871,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2240,32 +1881,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2353,13 +1968,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2498,9 +2172,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2510,9 +2181,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2528,20 +2196,41 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2549,27 +2238,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2603,31 +2274,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2663,7 +2322,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2693,22 +2364,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2717,7 +2400,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2726,7 +2409,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2735,13 +2418,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2756,46 +2439,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2816,7 +2511,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3131,16 +2826,16 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="57.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -3163,7 +2858,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="64" t="s">
@@ -3183,19 +2878,19 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="64" t="s">
@@ -3215,25 +2910,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="64" t="s">
         <v>18</v>
       </c>
@@ -3245,11 +2940,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3262,46 +2957,46 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="67"/>
       <c r="J11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1">
       <c r="A13" s="64" t="s">
@@ -3341,13 +3036,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:C12"/>
     <mergeCell ref="H9:H12"/>
     <mergeCell ref="A8:A12"/>
@@ -3359,6 +3047,13 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:G8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3400,16 +3095,16 @@
       <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="40.5" customHeight="1">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="57.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -3434,7 +3129,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="64" t="s">
@@ -3454,19 +3149,19 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="42.75" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="64" t="s">
@@ -3486,25 +3181,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="69" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="64" t="s">
         <v>18</v>
       </c>
@@ -3516,11 +3211,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="61" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3533,94 +3228,87 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="67" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="67"/>
       <c r="J11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:10" ht="27.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="78" t="s">
+      <c r="E13" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="79"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="80"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="72"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:10" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B9:C12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B14:H15"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B6:E6"/>
@@ -3631,6 +3319,13 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:C12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.96" right="0.70866141732283472" top="0.48" bottom="0.33" header="0.31496062992125984" footer="0.24"/>
@@ -3674,21 +3369,21 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
     </row>
     <row r="3" spans="1:13" ht="64.5" customHeight="1">
       <c r="A3" s="13" t="s">
@@ -3700,96 +3395,96 @@
       <c r="C3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="85" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
       <c r="K3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="89"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81" t="s">
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="81"/>
+      <c r="L4" s="84"/>
       <c r="M4" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="84" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
       <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="93" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="96" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="91" t="s">
+      <c r="K6" s="89"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="86" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="54" customHeight="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="38" t="s">
         <v>63</v>
       </c>
@@ -3817,14 +3512,14 @@
       <c r="L7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="92"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="84"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="35"/>
@@ -3837,9 +3532,9 @@
       <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="35"/>
@@ -3852,9 +3547,9 @@
       <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
@@ -3870,37 +3565,37 @@
       <c r="A11" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="100"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
     </row>
     <row r="12" spans="1:13" ht="42.75" customHeight="1">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="98" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="8"/>
@@ -3964,6 +3659,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="L3:M3"/>
@@ -3980,17 +3686,6 @@
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1.06" right="0.70866141732283472" top="0.47244094488188981" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.15748031496062992"/>
@@ -4027,16 +3722,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -4048,8 +3743,8 @@
       <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="107"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
@@ -4063,10 +3758,10 @@
       <c r="A4" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="103"/>
+      <c r="C4" s="102"/>
       <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
@@ -4088,10 +3783,10 @@
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1">
       <c r="A5" s="64"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
@@ -4101,8 +3796,8 @@
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1">
       <c r="A6" s="64"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
       <c r="F6" s="31"/>
@@ -4112,8 +3807,8 @@
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1">
       <c r="A7" s="64"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
@@ -4123,8 +3818,8 @@
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1">
       <c r="A8" s="64"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
@@ -4134,8 +3829,8 @@
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1">
       <c r="A9" s="64"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
@@ -4145,8 +3840,8 @@
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1">
       <c r="A10" s="64"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -4158,10 +3853,10 @@
       <c r="A11" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
@@ -4183,10 +3878,10 @@
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1">
       <c r="A12" s="64"/>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="13"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
@@ -4196,8 +3891,8 @@
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1">
       <c r="A13" s="64"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
@@ -4207,8 +3902,8 @@
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1">
       <c r="A14" s="64"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
@@ -4218,8 +3913,8 @@
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1">
       <c r="A15" s="64"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
@@ -4229,8 +3924,8 @@
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
       <c r="A16" s="64"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
@@ -4240,8 +3935,8 @@
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1">
       <c r="A17" s="64"/>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="21"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
@@ -4253,31 +3948,31 @@
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="109"/>
     </row>
     <row r="19" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="105" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="79"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4304,34 +3999,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="6" style="45" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="45" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="45" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="45" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="45" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="45"/>
+    <col min="1" max="2" width="17.625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="7.875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="6" style="45" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="45" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11.75" style="45" customWidth="1"/>
+    <col min="12" max="12" width="18.75" style="45" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="11.25" style="45" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A1" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="43"/>
+    <row r="1" spans="1:17" ht="21.75" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="54"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
@@ -4341,287 +4037,304 @@
       <c r="I1" s="43"/>
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="54" customHeight="1" thickBot="1">
+      <c r="A2" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+    </row>
+    <row r="3" spans="1:17" ht="35.1" customHeight="1">
+      <c r="A3" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="140"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="113"/>
+    </row>
+    <row r="4" spans="1:17" ht="28.5" customHeight="1">
+      <c r="A4" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="143" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="54" customHeight="1" thickBot="1">
-      <c r="A2" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-    </row>
-    <row r="3" spans="1:15" ht="35.1" customHeight="1">
-      <c r="A3" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="60" t="s">
+      <c r="C4" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="139" t="s">
-        <v>97</v>
-      </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="140"/>
-    </row>
-    <row r="4" spans="1:15" ht="28.5" customHeight="1">
-      <c r="A4" s="132" t="s">
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="125" t="s">
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="130"/>
+    </row>
+    <row r="5" spans="1:17" s="49" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A5" s="144"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="127"/>
-    </row>
-    <row r="5" spans="1:15" s="51" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="D5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="F5" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="I5" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="27" customHeight="1">
-      <c r="A6" s="144"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="49"/>
-    </row>
-    <row r="7" spans="1:15" ht="27" customHeight="1">
-      <c r="A7" s="144"/>
-      <c r="B7" s="42"/>
+      <c r="J5" s="138" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="150" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="27" customHeight="1">
+      <c r="A6" s="142"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:17" ht="27" customHeight="1">
+      <c r="A7" s="58"/>
+      <c r="B7" s="136"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="42"/>
-      <c r="L7" s="49"/>
-    </row>
-    <row r="8" spans="1:15" ht="27" customHeight="1">
-      <c r="A8" s="144"/>
-      <c r="B8" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="48"/>
+    </row>
+    <row r="8" spans="1:17" ht="27" customHeight="1">
+      <c r="A8" s="58"/>
+      <c r="B8" s="136"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="42"/>
-      <c r="L8" s="49"/>
-    </row>
-    <row r="9" spans="1:15" ht="27" customHeight="1">
-      <c r="A9" s="144"/>
-      <c r="B9" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="27" customHeight="1">
+      <c r="A9" s="58"/>
+      <c r="B9" s="136"/>
       <c r="C9" s="42"/>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="46"/>
       <c r="K9" s="42"/>
-      <c r="L9" s="49"/>
-    </row>
-    <row r="10" spans="1:15" ht="27" customHeight="1">
-      <c r="A10" s="144"/>
-      <c r="B10" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="48"/>
+    </row>
+    <row r="10" spans="1:17" ht="27" customHeight="1">
+      <c r="A10" s="58"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="46"/>
       <c r="K10" s="42"/>
-      <c r="L10" s="49"/>
-    </row>
-    <row r="11" spans="1:15" ht="27" customHeight="1">
-      <c r="A11" s="144"/>
-      <c r="B11" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="48"/>
+    </row>
+    <row r="11" spans="1:17" ht="27" customHeight="1">
+      <c r="A11" s="58"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="46"/>
       <c r="K11" s="42"/>
-      <c r="L11" s="49"/>
-    </row>
-    <row r="12" spans="1:15" ht="27" customHeight="1">
-      <c r="A12" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="48"/>
+    </row>
+    <row r="12" spans="1:17" ht="27" customHeight="1">
+      <c r="A12" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="78"/>
       <c r="C12" s="42"/>
       <c r="D12" s="42"/>
       <c r="E12" s="42"/>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="46"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="49"/>
-    </row>
-    <row r="13" spans="1:15" ht="21" customHeight="1">
-      <c r="A13" s="116" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="124"/>
-    </row>
-    <row r="14" spans="1:15" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A14" s="119"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="128" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="129"/>
-      <c r="K14" s="130"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="1:15" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A15" s="141" t="s">
+      <c r="L12" s="42"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" ht="21" customHeight="1">
+      <c r="A13" s="119" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="137"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="125" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="143"/>
-    </row>
-    <row r="16" spans="1:15" ht="27" customHeight="1" thickBot="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="112" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="113"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="127"/>
+    </row>
+    <row r="14" spans="1:17" ht="58.5" customHeight="1" thickBot="1">
+      <c r="A14" s="122"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="132"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+    </row>
+    <row r="15" spans="1:17" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A15" s="114" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A13:H14"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A4:H4"/>
+  <mergeCells count="13">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A13:I14"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
